--- a/Denislav Zlatanov/lesson 5/TC_001 successful login.xlsx
+++ b/Denislav Zlatanov/lesson 5/TC_001 successful login.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Test case template" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -58,21 +58,30 @@
 Website: http://skillo-bg.com</t>
   </si>
   <si>
-    <t>User accounts, SQL query, some data etc.</t>
-  </si>
-  <si>
-    <t>login with valid username and password</t>
+    <t>TC 001</t>
+  </si>
+  <si>
+    <t>Successful login</t>
+  </si>
+  <si>
+    <t>successful login with valid username and password</t>
+  </si>
+  <si>
+    <t>registration in www.automationpractice.com</t>
+  </si>
+  <si>
+    <t>www.automationpractice.com</t>
+  </si>
+  <si>
+    <t>22.10.2018</t>
+  </si>
+  <si>
+    <t>Denislav Zlatanov</t>
   </si>
   <si>
     <t>open www.automationpractice.com</t>
   </si>
   <si>
-    <t>22.10.2018</t>
-  </si>
-  <si>
-    <t>Denislav Zlatanov</t>
-  </si>
-  <si>
     <t>open homepage</t>
   </si>
   <si>
@@ -80,19 +89,13 @@
   </si>
   <si>
     <t>successful login</t>
-  </si>
-  <si>
-    <t>succesful login</t>
-  </si>
-  <si>
-    <t>TC_001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +115,14 @@
       <i/>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,10 +166,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -177,8 +189,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -527,7 +541,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -565,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -581,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -589,15 +603,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -605,7 +619,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -613,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -632,18 +646,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -659,8 +673,11 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>